--- a/results/by_outcome/full_results_wealth_observed.xlsx
+++ b/results/by_outcome/full_results_wealth_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.856665884253926</v>
+        <v>0.891438339859624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.143414279939849</v>
+        <v>0.108676415936547</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00008016419377</v>
+        <v>1.00011475579617</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.143402784171271</v>
+        <v>0.108663946118895</v>
       </c>
       <c r="K2" t="n">
-        <v>0.100036015155903</v>
+        <v>0.0645677439092995</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027602393702012</v>
+        <v>-0.0109867315004375</v>
       </c>
       <c r="M2" t="n">
-        <v>0.019819899733653</v>
+        <v>-0.0406373313050686</v>
       </c>
       <c r="N2" t="n">
-        <v>0.127638408857915</v>
+        <v>0.053581012408862</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.864449002099639</v>
+        <v>0.921092342242442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.100044034462407</v>
+        <v>0.0645751534321587</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.83684439567399</v>
+        <v>0.932080334534</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0924582734750405</v>
+        <v>0.0156529172020237</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.163222683904924</v>
+        <v>0.0680266148138263</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.143402784171271</v>
+        <v>0.108663946118895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0488540102051589</v>
+        <v>0.0492859953086397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.237951558137382</v>
+        <v>0.16804189692915</v>
       </c>
       <c r="F2" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.127638408857915</v>
+        <v>0.053581012408862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0333323205620518</v>
+        <v>-0.00557082496065574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.221944497153778</v>
+        <v>0.11273284977838</v>
       </c>
       <c r="F3" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163222683904924</v>
+        <v>0.0680266148138263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0703479671601663</v>
+        <v>0.00910844429976228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.256097400649681</v>
+        <v>0.12694478532789</v>
       </c>
       <c r="F4" t="n">
-        <v>1790</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_wealth_observed.xlsx
+++ b/results/by_outcome/full_results_wealth_observed.xlsx
@@ -597,10 +597,10 @@
         <v>0.108663946118895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0492859953086397</v>
+        <v>0.0536867743516621</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16804189692915</v>
+        <v>0.163641117886128</v>
       </c>
       <c r="F2" t="n">
         <v>948</v>
@@ -617,10 +617,10 @@
         <v>0.053581012408862</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00557082496065574</v>
+        <v>-0.00826467306677648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11273284977838</v>
+        <v>0.115426697884501</v>
       </c>
       <c r="F3" t="n">
         <v>948</v>
@@ -637,10 +637,10 @@
         <v>0.0680266148138263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00910844429976228</v>
+        <v>0.0042012509749491</v>
       </c>
       <c r="E4" t="n">
-        <v>0.12694478532789</v>
+        <v>0.131851978652704</v>
       </c>
       <c r="F4" t="n">
         <v>948</v>
